--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Hobro</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:52</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.38</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.49</v>
+        <v>4.16</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.23</v>
+        <v>4.12</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.27</v>
+        <v>3.96</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:52</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.16</v>
+        <v>3.49</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.12</v>
+        <v>3.23</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.96</v>
+        <v>2.27</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.44</v>
+        <v>2.99</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.73</v>
+        <v>3.45</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:31</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.73</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:37</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.31</v>
+        <v>2.44</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.79</v>
+        <v>3.66</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.76</v>
+        <v>3.73</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.2</v>
+        <v>3.43</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.89</v>
+        <v>2.73</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:37</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Sonderjyske</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.99</v>
+        <v>2.31</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.79</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:31</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.38</v>
+        <v>2.89</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.21</v>
+        <v>2.08</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:57</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.43</v>
+        <v>3.57</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.87</v>
+        <v>3.97</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:51</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.65</v>
+        <v>3.16</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:57</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-horsens/vRLU0sOq/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-boldklubben-1893/KxwSa1wj/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>B.93</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:57</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.57</v>
+        <v>3.43</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:51</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.16</v>
+        <v>2.65</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:57</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-boldklubben-1893/KxwSa1wj/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-horsens/vRLU0sOq/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.19</v>
+        <v>1.4</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 13:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.73</v>
+        <v>1.36</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:47</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.53</v>
+        <v>4.75</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 13:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:47</t>
+          <t>23/08/2023 18:55</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.18</v>
+        <v>6.3</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 13:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.61</v>
+        <v>7.36</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:08</t>
+          <t>23/08/2023 18:55</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-kolding-if/CWPDN4Vd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-koge/QZTHMOp3/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.4</v>
+        <v>2.12</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20/08/2023 13:12</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,40 +3548,40 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.75</v>
+        <v>3.52</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>20/08/2023 13:12</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.5</v>
+        <v>3.97</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 18:55</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>6.3</v>
+        <v>3.35</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>20/08/2023 13:12</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>7.36</v>
+        <v>4.08</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 18:55</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-koge/QZTHMOp3/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-hillerod/bTyWbLhd/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Hillerod</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>6</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.82</v>
+        <v>2.73</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:47</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.97</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:47</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.08</v>
+        <v>2.61</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:08</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-hillerod/bTyWbLhd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-kolding-if/CWPDN4Vd/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.02</v>
+        <v>3.9</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.46</v>
+        <v>4.16</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.19</v>
+        <v>1.79</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.59</v>
+        <v>2.46</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.02</v>
+        <v>3.79</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.54</v>
+        <v>3.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.72</v>
+        <v>3.19</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>2.62</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>1.79</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.16</v>
+        <v>1.59</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.8</v>
+        <v>4.02</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.85</v>
+        <v>4.54</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.79</v>
+        <v>3.72</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.83</v>
+        <v>4.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
         </is>
       </c>
     </row>
@@ -5422,6 +5422,374 @@
       <c r="V54" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-naestved-if/hStzoXkc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45191.79166666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Aalborg</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-koge/preqskkM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45191.79166666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>B.93</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>19/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>19/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>19/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-hobro/boamt94S/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45191.79166666666</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:37</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:37</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>22/09/2023 18:37</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-fredericia/4SyGyTCq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:31</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:31</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:31</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-vendsyssel-ff/CUdyqBK9/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Sonderjyske</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.99</v>
+        <v>2.31</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.6</v>
+        <v>3.79</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:31</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>2.89</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Helsingor</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.31</v>
+        <v>2.99</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.79</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:31</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.89</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
         </is>
       </c>
     </row>
@@ -5790,6 +5790,190 @@
       <c r="V58" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-vendsyssel-ff/CUdyqBK9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45193.54166666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Naestved</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>24/09/2023 07:41</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:50</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>20/09/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:50</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-hillerod/rJzKzmSk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-sonderjyske/jLeurVZF/</t>
         </is>
       </c>
     </row>
